--- a/data spreadsheets/film_festival.xlsx
+++ b/data spreadsheets/film_festival.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zafar\Documents\GitHub\cinefile\data spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDF3D78-310B-458F-A998-B87608D31C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC4EB34-B0E7-4000-B777-5DB3CFFE1C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56715" yWindow="11640" windowWidth="4860" windowHeight="1830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61110" yWindow="3510" windowWidth="21600" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -37,6 +45,48 @@
   </si>
   <si>
     <t>year_started</t>
+  </si>
+  <si>
+    <t>Venice Film Festival</t>
+  </si>
+  <si>
+    <t>Cannes Film Festival</t>
+  </si>
+  <si>
+    <t>Toronto International Film Festival</t>
+  </si>
+  <si>
+    <t>Berlin International Film Festival</t>
+  </si>
+  <si>
+    <t>New York Film Festival</t>
+  </si>
+  <si>
+    <t>Telluride Film Festival</t>
+  </si>
+  <si>
+    <t>BFI London Film Festival</t>
+  </si>
+  <si>
+    <t>Venice, Italy</t>
+  </si>
+  <si>
+    <t>Cannes, France</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>Toronto, Canada</t>
+  </si>
+  <si>
+    <t>New York City, United States</t>
+  </si>
+  <si>
+    <t>London, England</t>
+  </si>
+  <si>
+    <t>Telluride, United States</t>
   </si>
 </sst>
 </file>
@@ -354,15 +404,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="25.578125" customWidth="1"/>
+    <col min="2" max="2" width="29.5234375" customWidth="1"/>
+    <col min="3" max="3" width="18.3125" customWidth="1"/>
+    <col min="4" max="4" width="11.1015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -383,25 +435,98 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1932</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1946</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>1976</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1951</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>1974</v>
       </c>
     </row>
   </sheetData>
